--- a/INTLINE/data/542/KOSTAT/Monthly_KOS.xlsx
+++ b/INTLINE/data/542/KOSTAT/Monthly_KOS.xlsx
@@ -1407,7 +1407,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.03.31 16:25</t>
+    <t>2022.04.25 16:43</t>
   </si>
   <si>
     <t>○ Table URL</t>
@@ -1569,458 +1569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="12.6953125" customWidth="true"/>
-    <col min="2" max="2" width="31.25" customWidth="true"/>
-    <col min="3" max="3" width="16.6015625" customWidth="true"/>
-    <col min="4" max="4" width="14.0625" customWidth="true"/>
-    <col min="5" max="5" width="14.0625" customWidth="true"/>
-    <col min="6" max="6" width="14.0625" customWidth="true"/>
-    <col min="7" max="7" width="14.0625" customWidth="true"/>
-    <col min="8" max="8" width="14.0625" customWidth="true"/>
-    <col min="9" max="9" width="14.0625" customWidth="true"/>
-    <col min="10" max="10" width="14.0625" customWidth="true"/>
-    <col min="11" max="11" width="14.0625" customWidth="true"/>
-    <col min="12" max="12" width="14.0625" customWidth="true"/>
-    <col min="13" max="13" width="14.0625" customWidth="true"/>
-    <col min="14" max="14" width="14.0625" customWidth="true"/>
-    <col min="15" max="15" width="14.0625" customWidth="true"/>
-    <col min="16" max="16" width="14.0625" customWidth="true"/>
-    <col min="17" max="17" width="14.0625" customWidth="true"/>
-    <col min="18" max="18" width="14.0625" customWidth="true"/>
-    <col min="19" max="19" width="14.0625" customWidth="true"/>
-    <col min="20" max="20" width="14.0625" customWidth="true"/>
-    <col min="21" max="21" width="14.0625" customWidth="true"/>
-    <col min="22" max="22" width="14.0625" customWidth="true"/>
-    <col min="23" max="23" width="14.0625" customWidth="true"/>
-    <col min="24" max="24" width="14.0625" customWidth="true"/>
-    <col min="25" max="25" width="14.0625" customWidth="true"/>
-    <col min="26" max="26" width="14.0625" customWidth="true"/>
-    <col min="27" max="27" width="14.0625" customWidth="true"/>
-    <col min="28" max="28" width="14.0625" customWidth="true"/>
-    <col min="29" max="29" width="14.0625" customWidth="true"/>
-    <col min="30" max="30" width="14.0625" customWidth="true"/>
-    <col min="31" max="31" width="14.0625" customWidth="true"/>
-    <col min="32" max="32" width="14.0625" customWidth="true"/>
-    <col min="33" max="33" width="14.0625" customWidth="true"/>
-    <col min="34" max="34" width="14.0625" customWidth="true"/>
-    <col min="35" max="35" width="14.0625" customWidth="true"/>
-    <col min="36" max="36" width="14.0625" customWidth="true"/>
-    <col min="37" max="37" width="14.0625" customWidth="true"/>
-    <col min="38" max="38" width="14.0625" customWidth="true"/>
-    <col min="39" max="39" width="14.0625" customWidth="true"/>
-    <col min="40" max="40" width="14.0625" customWidth="true"/>
-    <col min="41" max="41" width="14.0625" customWidth="true"/>
-    <col min="42" max="42" width="14.0625" customWidth="true"/>
-    <col min="43" max="43" width="14.0625" customWidth="true"/>
-    <col min="44" max="44" width="14.0625" customWidth="true"/>
-    <col min="45" max="45" width="14.0625" customWidth="true"/>
-    <col min="46" max="46" width="14.0625" customWidth="true"/>
-    <col min="47" max="47" width="14.0625" customWidth="true"/>
-    <col min="48" max="48" width="14.0625" customWidth="true"/>
-    <col min="49" max="49" width="14.0625" customWidth="true"/>
-    <col min="50" max="50" width="14.0625" customWidth="true"/>
-    <col min="51" max="51" width="14.0625" customWidth="true"/>
-    <col min="52" max="52" width="14.0625" customWidth="true"/>
-    <col min="53" max="53" width="14.0625" customWidth="true"/>
-    <col min="54" max="54" width="14.0625" customWidth="true"/>
-    <col min="55" max="55" width="14.0625" customWidth="true"/>
-    <col min="56" max="56" width="14.0625" customWidth="true"/>
-    <col min="57" max="57" width="14.0625" customWidth="true"/>
-    <col min="58" max="58" width="14.0625" customWidth="true"/>
-    <col min="59" max="59" width="14.0625" customWidth="true"/>
-    <col min="60" max="60" width="14.0625" customWidth="true"/>
-    <col min="61" max="61" width="14.0625" customWidth="true"/>
-    <col min="62" max="62" width="14.0625" customWidth="true"/>
-    <col min="63" max="63" width="14.0625" customWidth="true"/>
-    <col min="64" max="64" width="14.0625" customWidth="true"/>
-    <col min="65" max="65" width="14.0625" customWidth="true"/>
-    <col min="66" max="66" width="14.0625" customWidth="true"/>
-    <col min="67" max="67" width="14.0625" customWidth="true"/>
-    <col min="68" max="68" width="14.0625" customWidth="true"/>
-    <col min="69" max="69" width="14.0625" customWidth="true"/>
-    <col min="70" max="70" width="14.0625" customWidth="true"/>
-    <col min="71" max="71" width="14.0625" customWidth="true"/>
-    <col min="72" max="72" width="14.0625" customWidth="true"/>
-    <col min="73" max="73" width="14.0625" customWidth="true"/>
-    <col min="74" max="74" width="14.0625" customWidth="true"/>
-    <col min="75" max="75" width="14.0625" customWidth="true"/>
-    <col min="76" max="76" width="14.0625" customWidth="true"/>
-    <col min="77" max="77" width="14.0625" customWidth="true"/>
-    <col min="78" max="78" width="14.0625" customWidth="true"/>
-    <col min="79" max="79" width="14.0625" customWidth="true"/>
-    <col min="80" max="80" width="14.0625" customWidth="true"/>
-    <col min="81" max="81" width="14.0625" customWidth="true"/>
-    <col min="82" max="82" width="14.0625" customWidth="true"/>
-    <col min="83" max="83" width="14.0625" customWidth="true"/>
-    <col min="84" max="84" width="14.0625" customWidth="true"/>
-    <col min="85" max="85" width="14.0625" customWidth="true"/>
-    <col min="86" max="86" width="14.0625" customWidth="true"/>
-    <col min="87" max="87" width="14.0625" customWidth="true"/>
-    <col min="88" max="88" width="14.0625" customWidth="true"/>
-    <col min="89" max="89" width="14.0625" customWidth="true"/>
-    <col min="90" max="90" width="14.0625" customWidth="true"/>
-    <col min="91" max="91" width="14.0625" customWidth="true"/>
-    <col min="92" max="92" width="14.0625" customWidth="true"/>
-    <col min="93" max="93" width="14.0625" customWidth="true"/>
-    <col min="94" max="94" width="14.0625" customWidth="true"/>
-    <col min="95" max="95" width="14.0625" customWidth="true"/>
-    <col min="96" max="96" width="14.0625" customWidth="true"/>
-    <col min="97" max="97" width="14.0625" customWidth="true"/>
-    <col min="98" max="98" width="14.0625" customWidth="true"/>
-    <col min="99" max="99" width="14.0625" customWidth="true"/>
-    <col min="100" max="100" width="14.0625" customWidth="true"/>
-    <col min="101" max="101" width="14.0625" customWidth="true"/>
-    <col min="102" max="102" width="14.0625" customWidth="true"/>
-    <col min="103" max="103" width="14.0625" customWidth="true"/>
-    <col min="104" max="104" width="14.0625" customWidth="true"/>
-    <col min="105" max="105" width="14.0625" customWidth="true"/>
-    <col min="106" max="106" width="14.0625" customWidth="true"/>
-    <col min="107" max="107" width="14.0625" customWidth="true"/>
-    <col min="108" max="108" width="14.0625" customWidth="true"/>
-    <col min="109" max="109" width="14.0625" customWidth="true"/>
-    <col min="110" max="110" width="14.0625" customWidth="true"/>
-    <col min="111" max="111" width="14.0625" customWidth="true"/>
-    <col min="112" max="112" width="14.0625" customWidth="true"/>
-    <col min="113" max="113" width="14.0625" customWidth="true"/>
-    <col min="114" max="114" width="14.0625" customWidth="true"/>
-    <col min="115" max="115" width="14.0625" customWidth="true"/>
-    <col min="116" max="116" width="14.0625" customWidth="true"/>
-    <col min="117" max="117" width="14.0625" customWidth="true"/>
-    <col min="118" max="118" width="14.0625" customWidth="true"/>
-    <col min="119" max="119" width="14.0625" customWidth="true"/>
-    <col min="120" max="120" width="14.0625" customWidth="true"/>
-    <col min="121" max="121" width="14.0625" customWidth="true"/>
-    <col min="122" max="122" width="14.0625" customWidth="true"/>
-    <col min="123" max="123" width="14.0625" customWidth="true"/>
-    <col min="124" max="124" width="14.0625" customWidth="true"/>
-    <col min="125" max="125" width="14.0625" customWidth="true"/>
-    <col min="126" max="126" width="14.0625" customWidth="true"/>
-    <col min="127" max="127" width="14.0625" customWidth="true"/>
-    <col min="128" max="128" width="14.0625" customWidth="true"/>
-    <col min="129" max="129" width="14.0625" customWidth="true"/>
-    <col min="130" max="130" width="14.0625" customWidth="true"/>
-    <col min="131" max="131" width="14.0625" customWidth="true"/>
-    <col min="132" max="132" width="14.0625" customWidth="true"/>
-    <col min="133" max="133" width="14.0625" customWidth="true"/>
-    <col min="134" max="134" width="14.0625" customWidth="true"/>
-    <col min="135" max="135" width="14.0625" customWidth="true"/>
-    <col min="136" max="136" width="14.0625" customWidth="true"/>
-    <col min="137" max="137" width="14.0625" customWidth="true"/>
-    <col min="138" max="138" width="14.0625" customWidth="true"/>
-    <col min="139" max="139" width="14.0625" customWidth="true"/>
-    <col min="140" max="140" width="14.0625" customWidth="true"/>
-    <col min="141" max="141" width="14.0625" customWidth="true"/>
-    <col min="142" max="142" width="14.0625" customWidth="true"/>
-    <col min="143" max="143" width="14.0625" customWidth="true"/>
-    <col min="144" max="144" width="14.0625" customWidth="true"/>
-    <col min="145" max="145" width="14.0625" customWidth="true"/>
-    <col min="146" max="146" width="14.0625" customWidth="true"/>
-    <col min="147" max="147" width="14.0625" customWidth="true"/>
-    <col min="148" max="148" width="14.0625" customWidth="true"/>
-    <col min="149" max="149" width="14.0625" customWidth="true"/>
-    <col min="150" max="150" width="14.0625" customWidth="true"/>
-    <col min="151" max="151" width="14.0625" customWidth="true"/>
-    <col min="152" max="152" width="14.0625" customWidth="true"/>
-    <col min="153" max="153" width="14.0625" customWidth="true"/>
-    <col min="154" max="154" width="14.0625" customWidth="true"/>
-    <col min="155" max="155" width="14.0625" customWidth="true"/>
-    <col min="156" max="156" width="14.0625" customWidth="true"/>
-    <col min="157" max="157" width="14.0625" customWidth="true"/>
-    <col min="158" max="158" width="14.0625" customWidth="true"/>
-    <col min="159" max="159" width="14.0625" customWidth="true"/>
-    <col min="160" max="160" width="14.0625" customWidth="true"/>
-    <col min="161" max="161" width="14.0625" customWidth="true"/>
-    <col min="162" max="162" width="14.0625" customWidth="true"/>
-    <col min="163" max="163" width="14.0625" customWidth="true"/>
-    <col min="164" max="164" width="14.0625" customWidth="true"/>
-    <col min="165" max="165" width="14.0625" customWidth="true"/>
-    <col min="166" max="166" width="14.0625" customWidth="true"/>
-    <col min="167" max="167" width="14.0625" customWidth="true"/>
-    <col min="168" max="168" width="14.0625" customWidth="true"/>
-    <col min="169" max="169" width="14.0625" customWidth="true"/>
-    <col min="170" max="170" width="14.0625" customWidth="true"/>
-    <col min="171" max="171" width="14.0625" customWidth="true"/>
-    <col min="172" max="172" width="14.0625" customWidth="true"/>
-    <col min="173" max="173" width="14.0625" customWidth="true"/>
-    <col min="174" max="174" width="14.0625" customWidth="true"/>
-    <col min="175" max="175" width="14.0625" customWidth="true"/>
-    <col min="176" max="176" width="14.0625" customWidth="true"/>
-    <col min="177" max="177" width="14.0625" customWidth="true"/>
-    <col min="178" max="178" width="14.0625" customWidth="true"/>
-    <col min="179" max="179" width="14.0625" customWidth="true"/>
-    <col min="180" max="180" width="14.0625" customWidth="true"/>
-    <col min="181" max="181" width="14.0625" customWidth="true"/>
-    <col min="182" max="182" width="14.0625" customWidth="true"/>
-    <col min="183" max="183" width="14.0625" customWidth="true"/>
-    <col min="184" max="184" width="14.0625" customWidth="true"/>
-    <col min="185" max="185" width="14.0625" customWidth="true"/>
-    <col min="186" max="186" width="14.0625" customWidth="true"/>
-    <col min="187" max="187" width="14.0625" customWidth="true"/>
-    <col min="188" max="188" width="14.0625" customWidth="true"/>
-    <col min="189" max="189" width="14.0625" customWidth="true"/>
-    <col min="190" max="190" width="14.0625" customWidth="true"/>
-    <col min="191" max="191" width="14.0625" customWidth="true"/>
-    <col min="192" max="192" width="14.0625" customWidth="true"/>
-    <col min="193" max="193" width="14.0625" customWidth="true"/>
-    <col min="194" max="194" width="14.0625" customWidth="true"/>
-    <col min="195" max="195" width="14.0625" customWidth="true"/>
-    <col min="196" max="196" width="14.0625" customWidth="true"/>
-    <col min="197" max="197" width="14.0625" customWidth="true"/>
-    <col min="198" max="198" width="14.0625" customWidth="true"/>
-    <col min="199" max="199" width="14.0625" customWidth="true"/>
-    <col min="200" max="200" width="14.0625" customWidth="true"/>
-    <col min="201" max="201" width="14.0625" customWidth="true"/>
-    <col min="202" max="202" width="14.0625" customWidth="true"/>
-    <col min="203" max="203" width="14.0625" customWidth="true"/>
-    <col min="204" max="204" width="14.0625" customWidth="true"/>
-    <col min="205" max="205" width="14.0625" customWidth="true"/>
-    <col min="206" max="206" width="14.0625" customWidth="true"/>
-    <col min="207" max="207" width="14.0625" customWidth="true"/>
-    <col min="208" max="208" width="14.0625" customWidth="true"/>
-    <col min="209" max="209" width="14.0625" customWidth="true"/>
-    <col min="210" max="210" width="14.0625" customWidth="true"/>
-    <col min="211" max="211" width="14.0625" customWidth="true"/>
-    <col min="212" max="212" width="14.0625" customWidth="true"/>
-    <col min="213" max="213" width="14.0625" customWidth="true"/>
-    <col min="214" max="214" width="14.0625" customWidth="true"/>
-    <col min="215" max="215" width="14.0625" customWidth="true"/>
-    <col min="216" max="216" width="14.0625" customWidth="true"/>
-    <col min="217" max="217" width="14.0625" customWidth="true"/>
-    <col min="218" max="218" width="14.0625" customWidth="true"/>
-    <col min="219" max="219" width="14.0625" customWidth="true"/>
-    <col min="220" max="220" width="14.0625" customWidth="true"/>
-    <col min="221" max="221" width="14.0625" customWidth="true"/>
-    <col min="222" max="222" width="14.0625" customWidth="true"/>
-    <col min="223" max="223" width="14.0625" customWidth="true"/>
-    <col min="224" max="224" width="14.0625" customWidth="true"/>
-    <col min="225" max="225" width="14.0625" customWidth="true"/>
-    <col min="226" max="226" width="14.0625" customWidth="true"/>
-    <col min="227" max="227" width="14.0625" customWidth="true"/>
-    <col min="228" max="228" width="14.0625" customWidth="true"/>
-    <col min="229" max="229" width="14.0625" customWidth="true"/>
-    <col min="230" max="230" width="14.0625" customWidth="true"/>
-    <col min="231" max="231" width="14.0625" customWidth="true"/>
-    <col min="232" max="232" width="14.0625" customWidth="true"/>
-    <col min="233" max="233" width="14.0625" customWidth="true"/>
-    <col min="234" max="234" width="14.0625" customWidth="true"/>
-    <col min="235" max="235" width="14.0625" customWidth="true"/>
-    <col min="236" max="236" width="14.0625" customWidth="true"/>
-    <col min="237" max="237" width="14.0625" customWidth="true"/>
-    <col min="238" max="238" width="14.0625" customWidth="true"/>
-    <col min="239" max="239" width="14.0625" customWidth="true"/>
-    <col min="240" max="240" width="14.0625" customWidth="true"/>
-    <col min="241" max="241" width="14.0625" customWidth="true"/>
-    <col min="242" max="242" width="14.0625" customWidth="true"/>
-    <col min="243" max="243" width="14.0625" customWidth="true"/>
-    <col min="244" max="244" width="14.0625" customWidth="true"/>
-    <col min="245" max="245" width="14.0625" customWidth="true"/>
-    <col min="246" max="246" width="14.0625" customWidth="true"/>
-    <col min="247" max="247" width="14.0625" customWidth="true"/>
-    <col min="248" max="248" width="14.0625" customWidth="true"/>
-    <col min="249" max="249" width="14.0625" customWidth="true"/>
-    <col min="250" max="250" width="14.0625" customWidth="true"/>
-    <col min="251" max="251" width="14.0625" customWidth="true"/>
-    <col min="252" max="252" width="14.0625" customWidth="true"/>
-    <col min="253" max="253" width="14.0625" customWidth="true"/>
-    <col min="254" max="254" width="16.40625" customWidth="true"/>
-    <col min="255" max="255" width="14.0625" customWidth="true"/>
-    <col min="256" max="256" width="14.0625" customWidth="true"/>
-    <col min="257" max="257" width="14.0625" customWidth="true"/>
-    <col min="258" max="258" width="14.0625" customWidth="true"/>
-    <col min="259" max="259" width="14.0625" customWidth="true"/>
-    <col min="260" max="260" width="14.0625" customWidth="true"/>
-    <col min="261" max="261" width="14.0625" customWidth="true"/>
-    <col min="262" max="262" width="14.0625" customWidth="true"/>
-    <col min="263" max="263" width="14.0625" customWidth="true"/>
-    <col min="264" max="264" width="16.40625" customWidth="true"/>
-    <col min="265" max="265" width="14.0625" customWidth="true"/>
-    <col min="266" max="266" width="16.40625" customWidth="true"/>
-    <col min="267" max="267" width="14.0625" customWidth="true"/>
-    <col min="268" max="268" width="14.0625" customWidth="true"/>
-    <col min="269" max="269" width="14.0625" customWidth="true"/>
-    <col min="270" max="270" width="14.0625" customWidth="true"/>
-    <col min="271" max="271" width="14.0625" customWidth="true"/>
-    <col min="272" max="272" width="14.0625" customWidth="true"/>
-    <col min="273" max="273" width="14.0625" customWidth="true"/>
-    <col min="274" max="274" width="14.0625" customWidth="true"/>
-    <col min="275" max="275" width="14.0625" customWidth="true"/>
-    <col min="276" max="276" width="14.0625" customWidth="true"/>
-    <col min="277" max="277" width="16.40625" customWidth="true"/>
-    <col min="278" max="278" width="16.40625" customWidth="true"/>
-    <col min="279" max="279" width="16.40625" customWidth="true"/>
-    <col min="280" max="280" width="16.40625" customWidth="true"/>
-    <col min="281" max="281" width="14.0625" customWidth="true"/>
-    <col min="282" max="282" width="16.40625" customWidth="true"/>
-    <col min="283" max="283" width="16.40625" customWidth="true"/>
-    <col min="284" max="284" width="14.0625" customWidth="true"/>
-    <col min="285" max="285" width="14.0625" customWidth="true"/>
-    <col min="286" max="286" width="14.0625" customWidth="true"/>
-    <col min="287" max="287" width="14.0625" customWidth="true"/>
-    <col min="288" max="288" width="14.0625" customWidth="true"/>
-    <col min="289" max="289" width="16.40625" customWidth="true"/>
-    <col min="290" max="290" width="14.0625" customWidth="true"/>
-    <col min="291" max="291" width="16.40625" customWidth="true"/>
-    <col min="292" max="292" width="14.0625" customWidth="true"/>
-    <col min="293" max="293" width="14.0625" customWidth="true"/>
-    <col min="294" max="294" width="14.0625" customWidth="true"/>
-    <col min="295" max="295" width="14.0625" customWidth="true"/>
-    <col min="296" max="296" width="14.0625" customWidth="true"/>
-    <col min="297" max="297" width="16.40625" customWidth="true"/>
-    <col min="298" max="298" width="14.0625" customWidth="true"/>
-    <col min="299" max="299" width="14.0625" customWidth="true"/>
-    <col min="300" max="300" width="16.40625" customWidth="true"/>
-    <col min="301" max="301" width="14.0625" customWidth="true"/>
-    <col min="302" max="302" width="16.40625" customWidth="true"/>
-    <col min="303" max="303" width="16.40625" customWidth="true"/>
-    <col min="304" max="304" width="14.0625" customWidth="true"/>
-    <col min="305" max="305" width="14.0625" customWidth="true"/>
-    <col min="306" max="306" width="16.40625" customWidth="true"/>
-    <col min="307" max="307" width="16.40625" customWidth="true"/>
-    <col min="308" max="308" width="16.40625" customWidth="true"/>
-    <col min="309" max="309" width="16.40625" customWidth="true"/>
-    <col min="310" max="310" width="16.40625" customWidth="true"/>
-    <col min="311" max="311" width="16.40625" customWidth="true"/>
-    <col min="312" max="312" width="16.40625" customWidth="true"/>
-    <col min="313" max="313" width="16.40625" customWidth="true"/>
-    <col min="314" max="314" width="16.40625" customWidth="true"/>
-    <col min="315" max="315" width="16.40625" customWidth="true"/>
-    <col min="316" max="316" width="16.40625" customWidth="true"/>
-    <col min="317" max="317" width="14.0625" customWidth="true"/>
-    <col min="318" max="318" width="16.40625" customWidth="true"/>
-    <col min="319" max="319" width="16.40625" customWidth="true"/>
-    <col min="320" max="320" width="16.40625" customWidth="true"/>
-    <col min="321" max="321" width="16.40625" customWidth="true"/>
-    <col min="322" max="322" width="16.40625" customWidth="true"/>
-    <col min="323" max="323" width="16.40625" customWidth="true"/>
-    <col min="324" max="324" width="16.40625" customWidth="true"/>
-    <col min="325" max="325" width="16.40625" customWidth="true"/>
-    <col min="326" max="326" width="16.40625" customWidth="true"/>
-    <col min="327" max="327" width="16.40625" customWidth="true"/>
-    <col min="328" max="328" width="16.40625" customWidth="true"/>
-    <col min="329" max="329" width="16.40625" customWidth="true"/>
-    <col min="330" max="330" width="16.40625" customWidth="true"/>
-    <col min="331" max="331" width="16.40625" customWidth="true"/>
-    <col min="332" max="332" width="16.40625" customWidth="true"/>
-    <col min="333" max="333" width="16.40625" customWidth="true"/>
-    <col min="334" max="334" width="16.40625" customWidth="true"/>
-    <col min="335" max="335" width="16.40625" customWidth="true"/>
-    <col min="336" max="336" width="16.40625" customWidth="true"/>
-    <col min="337" max="337" width="16.40625" customWidth="true"/>
-    <col min="338" max="338" width="16.40625" customWidth="true"/>
-    <col min="339" max="339" width="16.40625" customWidth="true"/>
-    <col min="340" max="340" width="16.40625" customWidth="true"/>
-    <col min="341" max="341" width="14.0625" customWidth="true"/>
-    <col min="342" max="342" width="16.40625" customWidth="true"/>
-    <col min="343" max="343" width="16.40625" customWidth="true"/>
-    <col min="344" max="344" width="16.40625" customWidth="true"/>
-    <col min="345" max="345" width="16.40625" customWidth="true"/>
-    <col min="346" max="346" width="16.40625" customWidth="true"/>
-    <col min="347" max="347" width="14.0625" customWidth="true"/>
-    <col min="348" max="348" width="14.0625" customWidth="true"/>
-    <col min="349" max="349" width="16.40625" customWidth="true"/>
-    <col min="350" max="350" width="16.40625" customWidth="true"/>
-    <col min="351" max="351" width="16.40625" customWidth="true"/>
-    <col min="352" max="352" width="16.40625" customWidth="true"/>
-    <col min="353" max="353" width="14.0625" customWidth="true"/>
-    <col min="354" max="354" width="16.40625" customWidth="true"/>
-    <col min="355" max="355" width="16.40625" customWidth="true"/>
-    <col min="356" max="356" width="16.40625" customWidth="true"/>
-    <col min="357" max="357" width="16.40625" customWidth="true"/>
-    <col min="358" max="358" width="16.40625" customWidth="true"/>
-    <col min="359" max="359" width="14.0625" customWidth="true"/>
-    <col min="360" max="360" width="16.40625" customWidth="true"/>
-    <col min="361" max="361" width="16.40625" customWidth="true"/>
-    <col min="362" max="362" width="16.40625" customWidth="true"/>
-    <col min="363" max="363" width="16.40625" customWidth="true"/>
-    <col min="364" max="364" width="11.71875" customWidth="true"/>
-    <col min="365" max="365" width="9.375" customWidth="true"/>
-    <col min="366" max="366" width="11.71875" customWidth="true"/>
-    <col min="367" max="367" width="11.71875" customWidth="true"/>
-    <col min="368" max="368" width="9.375" customWidth="true"/>
-    <col min="369" max="369" width="11.71875" customWidth="true"/>
-    <col min="370" max="370" width="11.71875" customWidth="true"/>
-    <col min="371" max="371" width="9.375" customWidth="true"/>
-    <col min="372" max="372" width="11.71875" customWidth="true"/>
-    <col min="373" max="373" width="11.71875" customWidth="true"/>
-    <col min="374" max="374" width="11.71875" customWidth="true"/>
-    <col min="375" max="375" width="11.71875" customWidth="true"/>
-    <col min="376" max="376" width="11.71875" customWidth="true"/>
-    <col min="377" max="377" width="9.375" customWidth="true"/>
-    <col min="378" max="378" width="11.71875" customWidth="true"/>
-    <col min="379" max="379" width="11.71875" customWidth="true"/>
-    <col min="380" max="380" width="11.71875" customWidth="true"/>
-    <col min="381" max="381" width="11.71875" customWidth="true"/>
-    <col min="382" max="382" width="11.71875" customWidth="true"/>
-    <col min="383" max="383" width="11.71875" customWidth="true"/>
-    <col min="384" max="384" width="11.71875" customWidth="true"/>
-    <col min="385" max="385" width="11.71875" customWidth="true"/>
-    <col min="386" max="386" width="11.71875" customWidth="true"/>
-    <col min="387" max="387" width="11.71875" customWidth="true"/>
-    <col min="388" max="388" width="11.71875" customWidth="true"/>
-    <col min="389" max="389" width="11.71875" customWidth="true"/>
-    <col min="390" max="390" width="11.71875" customWidth="true"/>
-    <col min="391" max="391" width="11.71875" customWidth="true"/>
-    <col min="392" max="392" width="11.71875" customWidth="true"/>
-    <col min="393" max="393" width="11.71875" customWidth="true"/>
-    <col min="394" max="394" width="11.71875" customWidth="true"/>
-    <col min="395" max="395" width="11.71875" customWidth="true"/>
-    <col min="396" max="396" width="11.71875" customWidth="true"/>
-    <col min="397" max="397" width="11.71875" customWidth="true"/>
-    <col min="398" max="398" width="11.71875" customWidth="true"/>
-    <col min="399" max="399" width="11.71875" customWidth="true"/>
-    <col min="400" max="400" width="11.71875" customWidth="true"/>
-    <col min="401" max="401" width="9.375" customWidth="true"/>
-    <col min="402" max="402" width="11.71875" customWidth="true"/>
-    <col min="403" max="403" width="11.71875" customWidth="true"/>
-    <col min="404" max="404" width="11.71875" customWidth="true"/>
-    <col min="405" max="405" width="11.71875" customWidth="true"/>
-    <col min="406" max="406" width="11.71875" customWidth="true"/>
-    <col min="407" max="407" width="11.71875" customWidth="true"/>
-    <col min="408" max="408" width="11.71875" customWidth="true"/>
-    <col min="409" max="409" width="11.71875" customWidth="true"/>
-    <col min="410" max="410" width="11.71875" customWidth="true"/>
-    <col min="411" max="411" width="11.71875" customWidth="true"/>
-    <col min="412" max="412" width="11.71875" customWidth="true"/>
-    <col min="413" max="413" width="9.375" customWidth="true"/>
-    <col min="414" max="414" width="11.71875" customWidth="true"/>
-    <col min="415" max="415" width="11.71875" customWidth="true"/>
-    <col min="416" max="416" width="11.71875" customWidth="true"/>
-    <col min="417" max="417" width="11.71875" customWidth="true"/>
-    <col min="418" max="418" width="11.71875" customWidth="true"/>
-    <col min="419" max="419" width="11.71875" customWidth="true"/>
-    <col min="420" max="420" width="11.71875" customWidth="true"/>
-    <col min="421" max="421" width="11.71875" customWidth="true"/>
-    <col min="422" max="422" width="11.71875" customWidth="true"/>
-    <col min="423" max="423" width="11.71875" customWidth="true"/>
-    <col min="424" max="424" width="11.71875" customWidth="true"/>
-    <col min="425" max="425" width="11.71875" customWidth="true"/>
-    <col min="426" max="426" width="11.71875" customWidth="true"/>
-    <col min="427" max="427" width="11.71875" customWidth="true"/>
-    <col min="428" max="428" width="11.71875" customWidth="true"/>
-    <col min="429" max="429" width="11.71875" customWidth="true"/>
-    <col min="430" max="430" width="11.71875" customWidth="true"/>
-    <col min="431" max="431" width="11.71875" customWidth="true"/>
-    <col min="432" max="432" width="11.71875" customWidth="true"/>
-    <col min="433" max="433" width="11.71875" customWidth="true"/>
-    <col min="434" max="434" width="11.71875" customWidth="true"/>
-    <col min="435" max="435" width="11.71875" customWidth="true"/>
-    <col min="436" max="436" width="11.71875" customWidth="true"/>
-    <col min="437" max="437" width="11.71875" customWidth="true"/>
-    <col min="438" max="438" width="11.71875" customWidth="true"/>
-    <col min="439" max="439" width="11.71875" customWidth="true"/>
-    <col min="440" max="440" width="11.71875" customWidth="true"/>
-    <col min="441" max="441" width="11.71875" customWidth="true"/>
-    <col min="442" max="442" width="11.71875" customWidth="true"/>
-    <col min="443" max="443" width="11.71875" customWidth="true"/>
-    <col min="444" max="444" width="11.71875" customWidth="true"/>
-    <col min="445" max="445" width="11.71875" customWidth="true"/>
-    <col min="446" max="446" width="11.71875" customWidth="true"/>
-    <col min="447" max="447" width="11.71875" customWidth="true"/>
-    <col min="448" max="448" width="11.71875" customWidth="true"/>
-    <col min="449" max="449" width="11.71875" customWidth="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="20"/>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
       <c r="A1" s="1" t="s">

--- a/INTLINE/data/542/KOSTAT/Monthly_KOS.xlsx
+++ b/INTLINE/data/542/KOSTAT/Monthly_KOS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="472">
   <si>
     <t>By province</t>
   </si>
@@ -1356,10 +1356,16 @@
     <t>2021.12</t>
   </si>
   <si>
-    <t>2022.01 p)</t>
-  </si>
-  <si>
-    <t>2022.02 p)</t>
+    <t>2022.01</t>
+  </si>
+  <si>
+    <t>2022.02</t>
+  </si>
+  <si>
+    <t>2022.03 p)</t>
+  </si>
+  <si>
+    <t>2022.04 p)</t>
   </si>
   <si>
     <t>Whole country</t>
@@ -1395,7 +1401,7 @@
     <t>○ Search Period</t>
   </si>
   <si>
-    <t xml:space="preserve">[Monthly] 198501~202202  </t>
+    <t xml:space="preserve">[Monthly] 198501~202204  </t>
   </si>
   <si>
     <t>○ Source</t>
@@ -1407,7 +1413,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.04.25 16:43</t>
+    <t>2022.06.14 15:13</t>
   </si>
   <si>
     <t>○ Table URL</t>
@@ -2919,16 +2925,22 @@
       <c r="QG1" s="2" t="s">
         <v>448</v>
       </c>
+      <c r="QH1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="QI1" s="2" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
       <c r="A2" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>8.14</v>
@@ -4263,21 +4275,27 @@
         <v>120.5</v>
       </c>
       <c r="QF2" s="4" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="QG2" s="4" t="n">
-        <v>83.7</v>
+        <v>84.8</v>
+      </c>
+      <c r="QH2" s="4" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="QI2" s="4" t="n">
+        <v>100.4</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>6.904</v>
@@ -5612,21 +5630,27 @@
         <v>137.7</v>
       </c>
       <c r="QF3" s="4" t="n">
-        <v>126.7</v>
+        <v>126.9</v>
       </c>
       <c r="QG3" s="4" t="n">
-        <v>119.7</v>
+        <v>119.5</v>
+      </c>
+      <c r="QH3" s="4" t="n">
+        <v>137.3</v>
+      </c>
+      <c r="QI3" s="4" t="n">
+        <v>131.3</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
       <c r="A4" s="16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>28.556</v>
@@ -6964,7 +6988,13 @@
         <v>94.0</v>
       </c>
       <c r="QG4" s="4" t="n">
-        <v>87.5</v>
+        <v>87.2</v>
+      </c>
+      <c r="QH4" s="4" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="QI4" s="4" t="n">
+        <v>99.1</v>
       </c>
     </row>
   </sheetData>
@@ -6982,66 +7012,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/542/KOSTAT/Monthly_KOS.xlsx
+++ b/INTLINE/data/542/KOSTAT/Monthly_KOS.xlsx
@@ -1413,7 +1413,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.06.14 15:13</t>
+    <t>2022.06.27 16:28</t>
   </si>
   <si>
     <t>○ Table URL</t>
